--- a/Prácticas/Set_test2.xlsx
+++ b/Prácticas/Set_test2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/ismael_rsesma_alumnos_upm_es/Documents/Escritorio/Git/Finite-Element-Method/Prácticas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismas\Desktop\Finite-Element-Method\Prácticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_714DFE874B53944C72BC1385F6012D16618B6394" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E231A26-3265-440D-B89C-6D25B31516F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA574F-9621-4B4A-8407-D74D06590FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="480" windowWidth="14865" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Beam</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>E_RF mean</t>
+  </si>
+  <si>
+    <t>Sigma E_ISO</t>
+  </si>
+  <si>
+    <t>Sigma E_AF</t>
+  </si>
+  <si>
+    <t>Sigma E_RF</t>
+  </si>
+  <si>
+    <t>Sigma E_ISO rel</t>
+  </si>
+  <si>
+    <t>Sigma E_AF rel</t>
+  </si>
+  <si>
+    <t>Sigma E_RF rel</t>
   </si>
 </sst>
 </file>
@@ -184,12 +202,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,13 +228,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,7 +254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,13 +550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
@@ -541,7 +566,9 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="9" width="28" customWidth="1"/>
     <col min="10" max="12" width="32" customWidth="1"/>
-    <col min="13" max="15" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="16" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -564,31 +591,31 @@
       <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1436,7 +1463,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1631,7 +1658,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1961,7 +1988,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B26">
@@ -2046,7 +2073,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B27">
@@ -2131,7 +2158,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B28">
@@ -2216,7 +2243,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B29">
@@ -2301,7 +2328,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B30">
@@ -2386,7 +2413,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B31">
@@ -2471,7 +2498,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B32">
@@ -2555,7 +2582,7 @@
         <v>1.0655112953107124</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2565,9 +2592,27 @@
       <c r="D34" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="H34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35">
@@ -2582,107 +2627,765 @@
         <f>(S26+T26+U26)/3</f>
         <v>2.1632298899620879</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>_xlfn.STDEV.S(M2,N2,O2)</f>
+        <v>0.15305034745707483</v>
+      </c>
+      <c r="I35">
+        <f>_xlfn.STDEV.S(P2,Q2,R2)</f>
+        <v>0.16107524689625269</v>
+      </c>
+      <c r="J35">
+        <f>_xlfn.STDEV.S(S2,T2,U2)</f>
+        <v>0.32407352957130503</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f>H35/B35*100</f>
+        <v>4.5297144707579156</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:O35" si="7">I35/C35*100</f>
+        <v>4.7833297299596094</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>14.981002762354798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:B41" si="7">(M27+N27+O27)/3</f>
+        <f t="shared" ref="B36:B41" si="8">(M27+N27+O27)/3</f>
         <v>2.9612661644757448</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C41" si="8">(P27+Q27+R27)/3</f>
+        <f t="shared" ref="C36:C41" si="9">(P27+Q27+R27)/3</f>
         <v>2.9513261238774775</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D41" si="9">(S27+T27+U27)/3</f>
+        <f t="shared" ref="D36:D41" si="10">(S27+T27+U27)/3</f>
         <v>1.8738414840862856</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H55" si="11">_xlfn.STDEV.S(M3,N3,O3)</f>
+        <v>0.25096247743223837</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I55" si="12">_xlfn.STDEV.S(P3,Q3,R3)</f>
+        <v>0.25837944281985625</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J55" si="13">_xlfn.STDEV.S(S3,T3,U3)</f>
+        <v>0.29679271323118167</v>
+      </c>
+      <c r="L36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36:M41" si="14">H36/B36*100</f>
+        <v>8.4748368938551035</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:N41" si="15">I36/C36*100</f>
+        <v>8.7546896538968433</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:O41" si="16">J36/D36*100</f>
+        <v>15.838731064058093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2036524529755894</v>
       </c>
       <c r="C37">
+        <f t="shared" si="9"/>
+        <v>2.1962367533397464</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>1.4323025641251281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>0.14956747887513422</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="12"/>
+        <v>0.15703254296127298</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="13"/>
+        <v>0.34053734534307956</v>
+      </c>
+      <c r="L37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="14"/>
+        <v>6.7872535287119993</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="15"/>
+        <v>7.1500735393157715</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="16"/>
+        <v>23.77551739922248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="8"/>
-        <v>2.1962367533397464</v>
-      </c>
-      <c r="D37">
+        <v>2.7947104834487519</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="9"/>
-        <v>1.4323025641251281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="7"/>
-        <v>2.7947104834487519</v>
-      </c>
-      <c r="C38">
+        <v>2.785532135551998</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="10"/>
+        <v>1.9002223678972985</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>0.61799145373820719</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="12"/>
+        <v>0.6226130668015144</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="13"/>
+        <v>1.1191962570361029</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="14"/>
+        <v>22.112897110386484</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>22.351674168646184</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="16"/>
+        <v>58.89817296880657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <f t="shared" si="8"/>
-        <v>2.785532135551998</v>
-      </c>
-      <c r="D38">
+        <v>2.8503669078834046</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="9"/>
-        <v>1.9002223678972985</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="7"/>
-        <v>2.8503669078834046</v>
-      </c>
-      <c r="C39">
+        <v>2.8409844145801935</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="10"/>
+        <v>1.8355949684728758</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>0.10493906650456736</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="12"/>
+        <v>0.11340650367902945</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="13"/>
+        <v>0.21856651646863207</v>
+      </c>
+      <c r="L39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="14"/>
+        <v>3.6815985413783765</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="15"/>
+        <v>3.9918030911052109</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="16"/>
+        <v>11.907121136340256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <f t="shared" si="8"/>
-        <v>2.8409844145801935</v>
-      </c>
-      <c r="D39">
+        <v>2.8222946271608582</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="9"/>
-        <v>1.8355949684728758</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="7"/>
-        <v>2.8222946271608582</v>
-      </c>
-      <c r="C40">
+        <v>2.8130973194591804</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>1.7535594942984469</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>0.10592427791550685</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="12"/>
+        <v>0.11461673280330177</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="13"/>
+        <v>0.24411695067987241</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="14"/>
+        <v>3.7531261582729729</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="15"/>
+        <v>4.0743962894727339</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="16"/>
+        <v>13.921224313951047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <f t="shared" si="8"/>
-        <v>2.8130973194591804</v>
-      </c>
-      <c r="D40">
+        <v>1.5684469790909061</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="9"/>
-        <v>1.7535594942984469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="7"/>
-        <v>1.5684469790909061</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="8"/>
         <v>1.5637080652814352</v>
       </c>
-      <c r="D41" s="3">
-        <f t="shared" si="9"/>
+      <c r="D41" s="2">
+        <f t="shared" si="10"/>
         <v>1.1239102131827954</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>0.34420364283652433</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="12"/>
+        <v>0.34745176963686347</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="13"/>
+        <v>0.3117881105769354</v>
+      </c>
+      <c r="L41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="14"/>
+        <v>21.945507079622772</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="15"/>
+        <v>22.219733807814652</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="16"/>
+        <v>27.741371767944372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>0.30512966277854475</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="12"/>
+        <v>0.31512767486818505</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="13"/>
+        <v>0.40283012259625706</v>
+      </c>
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42">
+        <f>H42/B35*100</f>
+        <v>9.0306900435694928</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42:O42" si="17">I42/C35*100</f>
+        <v>9.3581081201192511</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="17"/>
+        <v>18.621697327014878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>3.7510895698796495E-2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="12"/>
+        <v>4.7079291457128719E-2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="13"/>
+        <v>0.29658715605153935</v>
+      </c>
+      <c r="L43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:M48" si="18">H43/B36*100</f>
+        <v>1.2667181406652561</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43:N48" si="19">I43/C36*100</f>
+        <v>1.5951910931237767</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:O48" si="20">J43/D36*100</f>
+        <v>15.82776123649327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="11"/>
+        <v>0.18646400657056383</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="12"/>
+        <v>0.19615409231259917</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="13"/>
+        <v>0.36185537468809231</v>
+      </c>
+      <c r="L44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="18"/>
+        <v>8.4615886828606612</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="19"/>
+        <v>8.9313728137148214</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="20"/>
+        <v>25.263892123876701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>9.6598287224577695E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="12"/>
+        <v>0.10108623339071006</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="13"/>
+        <v>0.22183309691363834</v>
+      </c>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="18"/>
+        <v>3.4564684891929369</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="19"/>
+        <v>3.6289738718335838</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="20"/>
+        <v>11.674059871167024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="11"/>
+        <v>0.51094698970185215</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="12"/>
+        <v>0.51861019137573006</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="13"/>
+        <v>0.24892043295250438</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="18"/>
+        <v>17.925656808907657</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="19"/>
+        <v>18.254594735338035</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="20"/>
+        <v>13.560749360715118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>0.64910902547441995</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="12"/>
+        <v>0.65653498279386979</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="13"/>
+        <v>0.21973804586265461</v>
+      </c>
+      <c r="L47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="18"/>
+        <v>22.999336044777287</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="19"/>
+        <v>23.338509416378422</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="20"/>
+        <v>12.530971807749586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>0.82545205348804396</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="12"/>
+        <v>0.82429374181534987</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="13"/>
+        <v>0.380567124329031</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="18"/>
+        <v>52.628623376640213</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="19"/>
+        <v>52.714042992864783</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="20"/>
+        <v>33.860989949660215</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>6.6162341191952717E-2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="12"/>
+        <v>7.5568600588128976E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="13"/>
+        <v>0.32168993349136221</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <f>H49/B35*100</f>
+        <v>1.9581563798831945</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ref="N49:O49" si="21">I49/C35*100</f>
+        <v>2.2441035529031987</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="21"/>
+        <v>14.870815856607827</v>
+      </c>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>0.21587964177984637</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="12"/>
+        <v>0.2234415566726857</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="13"/>
+        <v>0.26807365111170001</v>
+      </c>
+      <c r="L50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50:M55" si="22">H50/B36*100</f>
+        <v>7.2901127352078179</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50:N55" si="23">I50/C36*100</f>
+        <v>7.5708866893749533</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ref="O50:O55" si="24">J50/D36*100</f>
+        <v>14.30610077684436</v>
+      </c>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>1.682562974646918E-2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="12"/>
+        <v>1.7648028472551099E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="13"/>
+        <v>3.2205725230129795E-2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="22"/>
+        <v>0.76353372891217719</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="23"/>
+        <v>0.80355765131943591</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="24"/>
+        <v>2.2485280719860707</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="11"/>
+        <v>0.15914584547676414</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="12"/>
+        <v>0.16709464778799143</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="13"/>
+        <v>0.2767145434145068</v>
+      </c>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="22"/>
+        <v>5.6945378213335953</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="23"/>
+        <v>5.9986616436890952</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="24"/>
+        <v>14.562219037591206</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>0.12884888922734369</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="12"/>
+        <v>0.13661043230158837</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="13"/>
+        <v>0.19426371647743326</v>
+      </c>
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="22"/>
+        <v>4.5204316984939643</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="23"/>
+        <v>4.8085597231892949</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="24"/>
+        <v>10.583147143786903</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>0.12213045066443508</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="12"/>
+        <v>0.12902764353916751</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="13"/>
+        <v>0.18935632722767692</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="22"/>
+        <v>4.3273458939789915</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="23"/>
+        <v>4.5866754287751821</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="24"/>
+        <v>10.798397650228196</v>
+      </c>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>0.22461567555035192</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="12"/>
+        <v>0.22820859182440142</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="13"/>
+        <v>0.3423700745403831</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="22"/>
+        <v>14.320896947408595</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="23"/>
+        <v>14.594066302480096</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="24"/>
+        <v>30.462404427381003</v>
       </c>
     </row>
   </sheetData>
